--- a/word_embedding.xlsx
+++ b/word_embedding.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389c5c223f9d271c/@Personal/@work/@LiberCraft/book_impress_text-image-basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{C9F84B36-FD69-4F4A-9F4D-28A7A40FC478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE29A6A-278F-4755-959C-B6979DA767FF}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{C9F84B36-FD69-4F4A-9F4D-28A7A40FC478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E237B9-E630-4D6F-97A0-420F058875D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40E63E2D-35E5-4438-9ABE-73073B86ABA0}"/>
+    <workbookView xWindow="39405" yWindow="3435" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{40E63E2D-35E5-4438-9ABE-73073B86ABA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>自動車</t>
     <rPh sb="0" eb="3">
@@ -118,6 +119,29 @@
     <rPh sb="0" eb="2">
       <t>モクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お茶</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coffee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tea</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -187,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +225,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -218,6 +245,968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1366300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1298900</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1265200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1261800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1258500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1255100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1251700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1248400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1245000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1241600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1238300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1234900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1231500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF32-4C0C-841C-59D98DA6A4CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="149326927"/>
+        <c:axId val="326728351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="149326927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326728351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="326728351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149326927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1389A8-F3F7-5D1E-04E8-7554A9F5FB05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4081,10 +5070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7ECA55-0EC0-473E-966D-8D7A56AC4123}">
-  <dimension ref="A2:AA99"/>
+  <dimension ref="A2:AA165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AS59" sqref="AS59:AS60"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="AA134" sqref="AA134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9515,7 +10504,7 @@
         <v>9.60522815585136E-2</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.4">
       <c r="C97" s="4">
         <v>0.36275580525398199</v>
       </c>
@@ -9577,7 +10566,7 @@
         <v>0.17242376506328499</v>
       </c>
     </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.4">
       <c r="C98" s="4">
         <v>0.97207999229431097</v>
       </c>
@@ -9639,7 +10628,7 @@
         <v>3.6243808269500701</v>
       </c>
     </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.4">
       <c r="C99" s="4">
         <v>2.7527375221252401</v>
       </c>
@@ -9699,12 +10688,3947 @@
       </c>
       <c r="V99" s="4">
         <v>1.47825527191162</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="4">
+        <v>-1.1977901458740201</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.22114129364490501</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.45179295539855902</v>
+      </c>
+      <c r="F101" s="4">
+        <v>2.59126877784729</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1.27288901805877</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0.54225426912307695</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0.76140481233596802</v>
+      </c>
+      <c r="J101" s="4">
+        <v>-1.6144590377807599</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0.34683275222778298</v>
+      </c>
+      <c r="L101" s="4">
+        <v>-5.7603225708007804</v>
+      </c>
+      <c r="M101" s="4">
+        <v>2.43346714973449</v>
+      </c>
+      <c r="N101" s="4">
+        <v>-0.28739315271377502</v>
+      </c>
+      <c r="O101" s="4">
+        <v>3.0466396808624201</v>
+      </c>
+      <c r="P101" s="4">
+        <v>-0.78670066595077504</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>0.66119456291198697</v>
+      </c>
+      <c r="R101" s="4">
+        <v>-4.7462314367294298E-2</v>
+      </c>
+      <c r="S101" s="4">
+        <v>3.2294704914093</v>
+      </c>
+      <c r="T101" s="4">
+        <v>3.42496609687805</v>
+      </c>
+      <c r="U101" s="4">
+        <v>-0.51587688922882002</v>
+      </c>
+      <c r="V101" s="4">
+        <v>1.2876659631729099</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C102" s="4">
+        <v>-0.71738910675048795</v>
+      </c>
+      <c r="D102" s="4">
+        <v>-1.84729659557342</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.487200677394866</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1.5050461292266799</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0.28261050581932001</v>
+      </c>
+      <c r="H102" s="4">
+        <v>1.1643738746643</v>
+      </c>
+      <c r="I102" s="4">
+        <v>-7.7653627395629803</v>
+      </c>
+      <c r="J102" s="4">
+        <v>-1.1727927923202499</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0.71673166751861495</v>
+      </c>
+      <c r="L102" s="4">
+        <v>2.2313117980957</v>
+      </c>
+      <c r="M102" s="4">
+        <v>-1.2588241100311199</v>
+      </c>
+      <c r="N102" s="4">
+        <v>-0.72424370050430298</v>
+      </c>
+      <c r="O102" s="4">
+        <v>-2.2999107837677002</v>
+      </c>
+      <c r="P102" s="4">
+        <v>2.0185337066650302</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>2.4504697322845401</v>
+      </c>
+      <c r="R102" s="4">
+        <v>1.68524706363677</v>
+      </c>
+      <c r="S102" s="4">
+        <v>-1.4744278192520099</v>
+      </c>
+      <c r="T102" s="4">
+        <v>-3.2572112083435001</v>
+      </c>
+      <c r="U102" s="4">
+        <v>-0.242442041635513</v>
+      </c>
+      <c r="V102" s="4">
+        <v>-4.3628234863281197</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C103" s="4">
+        <v>2.8378240764140999E-2</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.78417772054672197</v>
+      </c>
+      <c r="E103" s="4">
+        <v>2.2741663455963099</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1.0008796453475901</v>
+      </c>
+      <c r="G103" s="4">
+        <v>-2.8631017208099299</v>
+      </c>
+      <c r="H103" s="4">
+        <v>-2.6455395221710201</v>
+      </c>
+      <c r="I103" s="4">
+        <v>-2.3367342948913499</v>
+      </c>
+      <c r="J103" s="4">
+        <v>-0.76602321863174405</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0.59200650453567505</v>
+      </c>
+      <c r="L103" s="4">
+        <v>0.98178297281265203</v>
+      </c>
+      <c r="M103" s="4">
+        <v>1.3071306943893399</v>
+      </c>
+      <c r="N103" s="4">
+        <v>-3.96588778495788</v>
+      </c>
+      <c r="O103" s="4">
+        <v>1.2061311006546001</v>
+      </c>
+      <c r="P103" s="4">
+        <v>-4.5486345291137598</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>0.29206508398056003</v>
+      </c>
+      <c r="R103" s="4">
+        <v>1.5129485130310001</v>
+      </c>
+      <c r="S103" s="4">
+        <v>-1.47247779369354</v>
+      </c>
+      <c r="T103" s="4">
+        <v>-4.2868375778198198</v>
+      </c>
+      <c r="U103" s="4">
+        <v>0.34742653369903498</v>
+      </c>
+      <c r="V103" s="4">
+        <v>0.68952369689941395</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C104" s="4">
+        <v>-2.23086727783083E-3</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1.76013839244842</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0.41705125570297202</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1.7867511510848999</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0.56584048271179199</v>
+      </c>
+      <c r="H104" s="4">
+        <v>-0.955391645431518</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0.81632375717162997</v>
+      </c>
+      <c r="J104" s="4">
+        <v>-2.5289380550384499</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0.67544859647750799</v>
+      </c>
+      <c r="L104" s="4">
+        <v>-3.54290270805358</v>
+      </c>
+      <c r="M104" s="4">
+        <v>-0.30926120281219399</v>
+      </c>
+      <c r="N104" s="4">
+        <v>1.7591401338577199</v>
+      </c>
+      <c r="O104" s="4">
+        <v>-2.08823561668396</v>
+      </c>
+      <c r="P104" s="4">
+        <v>-2.9640853404998699</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>-0.790779829025268</v>
+      </c>
+      <c r="R104" s="4">
+        <v>0.17382073402404699</v>
+      </c>
+      <c r="S104" s="4">
+        <v>1.6949505805969201</v>
+      </c>
+      <c r="T104" s="4">
+        <v>1.3548938035964899</v>
+      </c>
+      <c r="U104" s="4">
+        <v>0.65180450677871704</v>
+      </c>
+      <c r="V104" s="4">
+        <v>3.3309347629547101</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C105" s="4">
+        <v>-2.6461188793182302</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.76372081041336004</v>
+      </c>
+      <c r="E105" s="4">
+        <v>-3.03302574157714</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0.21210181713104201</v>
+      </c>
+      <c r="G105" s="4">
+        <v>-1.13330709934234</v>
+      </c>
+      <c r="H105" s="4">
+        <v>-2.0802326202392498</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0.26243913173675498</v>
+      </c>
+      <c r="J105" s="4">
+        <v>-3.4109194278717001</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0.74098557233810403</v>
+      </c>
+      <c r="L105" s="4">
+        <v>1.61291015148162</v>
+      </c>
+      <c r="M105" s="4">
+        <v>-1.7652573585510201</v>
+      </c>
+      <c r="N105" s="4">
+        <v>-1.6369657516479399</v>
+      </c>
+      <c r="O105" s="4">
+        <v>-0.27668869495391801</v>
+      </c>
+      <c r="P105" s="4">
+        <v>-0.78909873962402299</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>1.1477071046829199</v>
+      </c>
+      <c r="R105" s="4">
+        <v>5.5248055458068803</v>
+      </c>
+      <c r="S105" s="4">
+        <v>0.30419263243675199</v>
+      </c>
+      <c r="T105" s="4">
+        <v>-3.1947147846221902</v>
+      </c>
+      <c r="U105" s="4">
+        <v>-1.3736999034881501</v>
+      </c>
+      <c r="V105" s="4">
+        <v>0.18903933465480799</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C106" s="4">
+        <v>3.5022385120391801</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.788194239139556</v>
+      </c>
+      <c r="E106" s="4">
+        <v>-1.4150116443634</v>
+      </c>
+      <c r="F106" s="4">
+        <v>5.4907379150390598</v>
+      </c>
+      <c r="G106" s="4">
+        <v>1.9282747507095299</v>
+      </c>
+      <c r="H106" s="4">
+        <v>-1.84171986579895</v>
+      </c>
+      <c r="I106" s="4">
+        <v>2.5398886203765798</v>
+      </c>
+      <c r="J106" s="4">
+        <v>1.11176562309265</v>
+      </c>
+      <c r="K106" s="4">
+        <v>-4.1666460037231401</v>
+      </c>
+      <c r="L106" s="4">
+        <v>3.0730724334716699</v>
+      </c>
+      <c r="M106" s="4">
+        <v>-1.4664626121520901</v>
+      </c>
+      <c r="N106" s="4">
+        <v>-5.3632278442382804</v>
+      </c>
+      <c r="O106" s="4">
+        <v>-3.8294086456298801</v>
+      </c>
+      <c r="P106" s="4">
+        <v>3.2518129348754798</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>-0.17557968199252999</v>
+      </c>
+      <c r="R106" s="4">
+        <v>-0.78131705522537198</v>
+      </c>
+      <c r="S106" s="4">
+        <v>2.3385105133056601</v>
+      </c>
+      <c r="T106" s="4">
+        <v>-1.6622121334075901</v>
+      </c>
+      <c r="U106" s="4">
+        <v>-1.88240265846252</v>
+      </c>
+      <c r="V106" s="4">
+        <v>2.9318156242370601</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C107" s="4">
+        <v>-2.8208985328674299</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1.22041535377502</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1.25948894023895</v>
+      </c>
+      <c r="F107" s="4">
+        <v>-3.1738507747650102</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2.2498483657836901</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1.2170683145523</v>
+      </c>
+      <c r="I107" s="4">
+        <v>-3.1119682788848801</v>
+      </c>
+      <c r="J107" s="4">
+        <v>-1.27031350135803</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0.136743053793907</v>
+      </c>
+      <c r="L107" s="4">
+        <v>0.91321825981140103</v>
+      </c>
+      <c r="M107" s="4">
+        <v>-1.3361028432846001</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0.45111486315727201</v>
+      </c>
+      <c r="O107" s="4">
+        <v>1.43624126911163</v>
+      </c>
+      <c r="P107" s="4">
+        <v>-5.0582963973283698E-2</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>0.64639496803283603</v>
+      </c>
+      <c r="R107" s="4">
+        <v>0.93840736150741499</v>
+      </c>
+      <c r="S107" s="4">
+        <v>4.5126004219055096</v>
+      </c>
+      <c r="T107" s="4">
+        <v>2.0361189842224099</v>
+      </c>
+      <c r="U107" s="4">
+        <v>-2.7459421157836901</v>
+      </c>
+      <c r="V107" s="4">
+        <v>9.60522815585136E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C108" s="4">
+        <v>0.36275580525398199</v>
+      </c>
+      <c r="D108" s="4">
+        <v>2.3733165264129599</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1.07742607593536</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1.0284776687621999</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0.42786094546317999</v>
+      </c>
+      <c r="H108" s="4">
+        <v>-2.5309298038482599</v>
+      </c>
+      <c r="I108" s="4">
+        <v>3.792724609375</v>
+      </c>
+      <c r="J108" s="4">
+        <v>3.1477689743041899</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1.3402907848358101</v>
+      </c>
+      <c r="L108" s="4">
+        <v>0.197203859686851</v>
+      </c>
+      <c r="M108" s="4">
+        <v>-0.66178554296493497</v>
+      </c>
+      <c r="N108" s="4">
+        <v>-0.25906687974929798</v>
+      </c>
+      <c r="O108" s="4">
+        <v>-1.4061251878738401</v>
+      </c>
+      <c r="P108" s="4">
+        <v>-0.49605247378349299</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>-0.348541289567947</v>
+      </c>
+      <c r="R108" s="4">
+        <v>2.8162758350372301</v>
+      </c>
+      <c r="S108" s="4">
+        <v>5.3128709793090803</v>
+      </c>
+      <c r="T108" s="4">
+        <v>-1.2301324605941699</v>
+      </c>
+      <c r="U108" s="4">
+        <v>2.5803053379058798</v>
+      </c>
+      <c r="V108" s="4">
+        <v>0.17242376506328499</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C109" s="4">
+        <v>0.97207999229431097</v>
+      </c>
+      <c r="D109" s="4">
+        <v>-1.50248670578002</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0.63964515924453702</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2.5295615196228001</v>
+      </c>
+      <c r="G109" s="4">
+        <v>-5.2767758369445801</v>
+      </c>
+      <c r="H109" s="4">
+        <v>-0.40615037083625699</v>
+      </c>
+      <c r="I109" s="4">
+        <v>2.59029936790466</v>
+      </c>
+      <c r="J109" s="4">
+        <v>-1.10880410671234</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0.500815629959106</v>
+      </c>
+      <c r="L109" s="4">
+        <v>2.34814453125</v>
+      </c>
+      <c r="M109" s="4">
+        <v>2.2454638481140101</v>
+      </c>
+      <c r="N109" s="4">
+        <v>3.4770364761352499</v>
+      </c>
+      <c r="O109" s="4">
+        <v>4.4684958457946697</v>
+      </c>
+      <c r="P109" s="4">
+        <v>-1.9437291622161801</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>-1.1961768865585301</v>
+      </c>
+      <c r="R109" s="4">
+        <v>4.9458365440368599</v>
+      </c>
+      <c r="S109" s="4">
+        <v>-2.2033798694610498</v>
+      </c>
+      <c r="T109" s="4">
+        <v>-2.1613488197326598</v>
+      </c>
+      <c r="U109" s="4">
+        <v>-1.5591017007827701</v>
+      </c>
+      <c r="V109" s="4">
+        <v>3.6243808269500701</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C110" s="4">
+        <v>2.7527375221252401</v>
+      </c>
+      <c r="D110" s="4">
+        <v>-2.7894833087921098</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2.81770515441894</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0.64444470405578602</v>
+      </c>
+      <c r="G110" s="4">
+        <v>5.1380262374877903</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0.75880306959152199</v>
+      </c>
+      <c r="I110" s="4">
+        <v>-0.42178699374198902</v>
+      </c>
+      <c r="J110" s="4">
+        <v>5.0171189308166504</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0.958407223224639</v>
+      </c>
+      <c r="L110" s="4">
+        <v>1.34215319156646</v>
+      </c>
+      <c r="M110" s="4">
+        <v>-2.9497106075286799</v>
+      </c>
+      <c r="N110" s="4">
+        <v>-1.2210712432861299</v>
+      </c>
+      <c r="O110" s="4">
+        <v>-3.5712628364562899</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0.921647429466247</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>-0.95285665988922097</v>
+      </c>
+      <c r="R110" s="4">
+        <v>4.2525897026062003</v>
+      </c>
+      <c r="S110" s="4">
+        <v>2.12767481803894</v>
+      </c>
+      <c r="T110" s="4">
+        <v>-1.97638440132141</v>
+      </c>
+      <c r="U110" s="4">
+        <v>-1.89360582828521</v>
+      </c>
+      <c r="V110" s="4">
+        <v>1.47825527191162</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C112" s="4">
+        <f ca="1">RAND()</f>
+        <v>4.1870542333484084E-2</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" ref="D112:V121" ca="1" si="0">RAND()</f>
+        <v>0.8972547934551941</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71126677239469516</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28890658089467447</v>
+      </c>
+      <c r="G112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86729679144609684</v>
+      </c>
+      <c r="H112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0238585342106097E-3</v>
+      </c>
+      <c r="I112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27644328849666888</v>
+      </c>
+      <c r="J112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6659669108234647E-2</v>
+      </c>
+      <c r="K112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83385592641217299</v>
+      </c>
+      <c r="L112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75843499204505604</v>
+      </c>
+      <c r="M112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84166574390024118</v>
+      </c>
+      <c r="N112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32835510829300762</v>
+      </c>
+      <c r="O112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19491616462384032</v>
+      </c>
+      <c r="P112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54028114472534028</v>
+      </c>
+      <c r="Q112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64007480220335311</v>
+      </c>
+      <c r="R112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62117416226861344</v>
+      </c>
+      <c r="S112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4289336412724616E-2</v>
+      </c>
+      <c r="T112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97211322578464832</v>
+      </c>
+      <c r="U112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48251461990396616</v>
+      </c>
+      <c r="V112" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48509377088716543</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C113" s="4">
+        <f t="shared" ref="C113:C121" ca="1" si="1">RAND()</f>
+        <v>0.85141729080674355</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16868901613919096</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8201576549606755E-2</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75732990880655338</v>
+      </c>
+      <c r="G113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72512585063735058</v>
+      </c>
+      <c r="H113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9747135998991322</v>
+      </c>
+      <c r="I113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38110660638617355</v>
+      </c>
+      <c r="J113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74000482358708342</v>
+      </c>
+      <c r="K113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63817895178035566</v>
+      </c>
+      <c r="L113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0081081307382527E-2</v>
+      </c>
+      <c r="M113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.931310648232043E-2</v>
+      </c>
+      <c r="N113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67685170510108028</v>
+      </c>
+      <c r="O113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81034699515416408</v>
+      </c>
+      <c r="P113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79671323134619809</v>
+      </c>
+      <c r="Q113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25068245705343117</v>
+      </c>
+      <c r="R113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76515553985713303</v>
+      </c>
+      <c r="S113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33457741348409842</v>
+      </c>
+      <c r="T113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24328667082846245</v>
+      </c>
+      <c r="U113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4731559368841437</v>
+      </c>
+      <c r="V113" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50785577255815872</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C114" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.707737617219929</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92102384923030967</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51482649262822511</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26625256090072991</v>
+      </c>
+      <c r="G114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98822707864054149</v>
+      </c>
+      <c r="H114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22698634265332518</v>
+      </c>
+      <c r="I114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89141149304230027</v>
+      </c>
+      <c r="J114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74701346659025814</v>
+      </c>
+      <c r="K114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35560020069173481</v>
+      </c>
+      <c r="L114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42042484454090723</v>
+      </c>
+      <c r="M114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2025309359287601E-2</v>
+      </c>
+      <c r="N114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22531015584290293</v>
+      </c>
+      <c r="O114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24902921408174583</v>
+      </c>
+      <c r="P114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34207898905118206</v>
+      </c>
+      <c r="Q114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35485912261737018</v>
+      </c>
+      <c r="R114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87172441216586127</v>
+      </c>
+      <c r="S114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69998090594833728</v>
+      </c>
+      <c r="T114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85607259563881954</v>
+      </c>
+      <c r="U114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45159291018867787</v>
+      </c>
+      <c r="V114" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90861015033539794</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C115" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16778063878336436</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48848849938918559</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88976787092115528</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3464527723171279</v>
+      </c>
+      <c r="G115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.88391476593856E-2</v>
+      </c>
+      <c r="H115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7754516529705868E-2</v>
+      </c>
+      <c r="I115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11002358076746199</v>
+      </c>
+      <c r="J115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67407560578137504</v>
+      </c>
+      <c r="K115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89696675825997829</v>
+      </c>
+      <c r="L115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1657806365204681E-2</v>
+      </c>
+      <c r="M115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45692769294319446</v>
+      </c>
+      <c r="N115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31891602080253167</v>
+      </c>
+      <c r="O115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68067591934940552</v>
+      </c>
+      <c r="P115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84516575174499042</v>
+      </c>
+      <c r="Q115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11347308208394968</v>
+      </c>
+      <c r="R115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0449521608991539E-2</v>
+      </c>
+      <c r="S115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86362092669468649</v>
+      </c>
+      <c r="T115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91531945605185261</v>
+      </c>
+      <c r="U115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36219960463414724</v>
+      </c>
+      <c r="V115" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2192177167845164</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C116" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33965929762824787</v>
+      </c>
+      <c r="D116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80874780220031461</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38232453648152553</v>
+      </c>
+      <c r="F116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14855057008931849</v>
+      </c>
+      <c r="G116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47410835455450351</v>
+      </c>
+      <c r="H116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59875761336781652</v>
+      </c>
+      <c r="I116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.831479784969403</v>
+      </c>
+      <c r="J116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63097274610263465</v>
+      </c>
+      <c r="K116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51600660322838265</v>
+      </c>
+      <c r="L116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69277369282352408</v>
+      </c>
+      <c r="M116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89963882573301956</v>
+      </c>
+      <c r="N116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76101234735641266</v>
+      </c>
+      <c r="O116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48417255567195994</v>
+      </c>
+      <c r="P116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14726543698999717</v>
+      </c>
+      <c r="Q116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5840034388376345</v>
+      </c>
+      <c r="R116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57106782337875173</v>
+      </c>
+      <c r="S116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56531723952766388</v>
+      </c>
+      <c r="T116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34647921573065132</v>
+      </c>
+      <c r="U116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76265010631632713</v>
+      </c>
+      <c r="V116" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62413390818915848</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C117" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91176393743472606</v>
+      </c>
+      <c r="D117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39776118727951271</v>
+      </c>
+      <c r="E117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5336232447809377E-2</v>
+      </c>
+      <c r="F117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89087337105211672</v>
+      </c>
+      <c r="G117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46153260717104649</v>
+      </c>
+      <c r="H117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3912123190692286</v>
+      </c>
+      <c r="I117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23908329365214076</v>
+      </c>
+      <c r="J117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84339390149739912</v>
+      </c>
+      <c r="K117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47458581228393204</v>
+      </c>
+      <c r="L117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35517818404424983</v>
+      </c>
+      <c r="M117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.077167371461579E-2</v>
+      </c>
+      <c r="N117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97132808221219846</v>
+      </c>
+      <c r="O117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13523265487880254</v>
+      </c>
+      <c r="P117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40419595467893343</v>
+      </c>
+      <c r="Q117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91170763606488059</v>
+      </c>
+      <c r="R117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96246747478614247</v>
+      </c>
+      <c r="S117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74624331737379634</v>
+      </c>
+      <c r="T117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.322846969776026</v>
+      </c>
+      <c r="U117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72983397397124861</v>
+      </c>
+      <c r="V117" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62784975935671528</v>
+      </c>
+    </row>
+    <row r="118" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C118" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18081483499649198</v>
+      </c>
+      <c r="D118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7756330529107629</v>
+      </c>
+      <c r="E118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.118645632995656</v>
+      </c>
+      <c r="F118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93840180531262329</v>
+      </c>
+      <c r="G118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28267590043793989</v>
+      </c>
+      <c r="H118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25424255610545787</v>
+      </c>
+      <c r="I118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64139887342328572</v>
+      </c>
+      <c r="J118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55205334116387306</v>
+      </c>
+      <c r="K118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71988114553509031</v>
+      </c>
+      <c r="L118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68060402919679852</v>
+      </c>
+      <c r="M118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69270376240933196</v>
+      </c>
+      <c r="N118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56988128408430128</v>
+      </c>
+      <c r="O118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5335471958341644E-2</v>
+      </c>
+      <c r="P118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95860000956520408</v>
+      </c>
+      <c r="Q118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76539198410018094</v>
+      </c>
+      <c r="R118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46632226905432828</v>
+      </c>
+      <c r="S118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27017032191526058</v>
+      </c>
+      <c r="T118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56519198832472151</v>
+      </c>
+      <c r="U118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60096133184085521</v>
+      </c>
+      <c r="V118" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44681734251664285</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C119" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13368619765192946</v>
+      </c>
+      <c r="D119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4471427563903578E-2</v>
+      </c>
+      <c r="E119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41288824925476764</v>
+      </c>
+      <c r="F119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38587443304203894</v>
+      </c>
+      <c r="G119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25500318712367853</v>
+      </c>
+      <c r="H119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43514494843019857</v>
+      </c>
+      <c r="I119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35598750453310268</v>
+      </c>
+      <c r="J119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27866858372032177</v>
+      </c>
+      <c r="K119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21093040059782597</v>
+      </c>
+      <c r="L119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22406503581372816</v>
+      </c>
+      <c r="M119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6029786815415399E-2</v>
+      </c>
+      <c r="N119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9971027946479275</v>
+      </c>
+      <c r="O119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36650005168185851</v>
+      </c>
+      <c r="P119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.186389211939894</v>
+      </c>
+      <c r="Q119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2313759468804929</v>
+      </c>
+      <c r="R119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23857736834296628</v>
+      </c>
+      <c r="S119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56761730307498348</v>
+      </c>
+      <c r="T119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14029597700495733</v>
+      </c>
+      <c r="U119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99318419243670797</v>
+      </c>
+      <c r="V119" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42092794225899133</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C120" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12547563878045465</v>
+      </c>
+      <c r="D120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48384398042934662</v>
+      </c>
+      <c r="E120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34307826836165323</v>
+      </c>
+      <c r="F120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53505094891673233</v>
+      </c>
+      <c r="G120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60840386834322313</v>
+      </c>
+      <c r="H120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97664795645837021</v>
+      </c>
+      <c r="I120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18922362236084089</v>
+      </c>
+      <c r="J120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0922668101255315E-3</v>
+      </c>
+      <c r="K120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88116698828267037</v>
+      </c>
+      <c r="L120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6458655303441263</v>
+      </c>
+      <c r="M120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69062007114050161</v>
+      </c>
+      <c r="N120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53657042156316404</v>
+      </c>
+      <c r="O120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22506563852251893</v>
+      </c>
+      <c r="P120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21912570478456195</v>
+      </c>
+      <c r="Q120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44746403501615262</v>
+      </c>
+      <c r="R120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83160150548274681</v>
+      </c>
+      <c r="S120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47652257120771291</v>
+      </c>
+      <c r="T120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64408281462762407</v>
+      </c>
+      <c r="U120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44204641997471927</v>
+      </c>
+      <c r="V120" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65174403803579173</v>
+      </c>
+    </row>
+    <row r="121" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C121" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62087873564904783</v>
+      </c>
+      <c r="D121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19929959381320295</v>
+      </c>
+      <c r="E121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88706985636302738</v>
+      </c>
+      <c r="F121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41170314848389289</v>
+      </c>
+      <c r="G121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39661820270633197</v>
+      </c>
+      <c r="H121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70928119169447834</v>
+      </c>
+      <c r="I121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3731960119371349E-2</v>
+      </c>
+      <c r="J121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3246833405490831</v>
+      </c>
+      <c r="K121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61188975372475496</v>
+      </c>
+      <c r="L121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5039640081620136E-2</v>
+      </c>
+      <c r="M121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28809323285074284</v>
+      </c>
+      <c r="N121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42868588465315072</v>
+      </c>
+      <c r="O121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43419368599972297</v>
+      </c>
+      <c r="P121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11394943042477779</v>
+      </c>
+      <c r="Q121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65270703935961383</v>
+      </c>
+      <c r="R121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80489371133360121</v>
+      </c>
+      <c r="S121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28526257633453267</v>
+      </c>
+      <c r="T121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52516992805510898</v>
+      </c>
+      <c r="U121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2540518098033403</v>
+      </c>
+      <c r="V121" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64609989924174316</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3.5938200950622501</v>
+      </c>
+      <c r="D123" s="3">
+        <v>-1.68005359172821</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.334078788757324</v>
+      </c>
+      <c r="F123" s="3">
+        <v>-1.1868653297424301</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.145764529705047</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1.4407209157943699</v>
+      </c>
+      <c r="I123" s="3">
+        <v>-1.19507384300231</v>
+      </c>
+      <c r="J123" s="3">
+        <v>-1.7028268575668299</v>
+      </c>
+      <c r="K123" s="3">
+        <v>1.43839418888092</v>
+      </c>
+      <c r="L123" s="3">
+        <v>-3.38765048980712</v>
+      </c>
+      <c r="M123" s="3">
+        <v>2.18385910987854</v>
+      </c>
+      <c r="N123" s="3">
+        <v>3.13429856300354</v>
+      </c>
+      <c r="O123" s="3">
+        <v>-6.2193708419799796</v>
+      </c>
+      <c r="P123" s="3">
+        <v>-1.26813948154449</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>0.64159011840820301</v>
+      </c>
+      <c r="R123" s="3">
+        <v>2.5113060474395699</v>
+      </c>
+      <c r="S123" s="3">
+        <v>-3.2376616001129102</v>
+      </c>
+      <c r="T123" s="3">
+        <v>0.29836410284042297</v>
+      </c>
+      <c r="U123" s="3">
+        <v>-2.59425403783097E-4</v>
+      </c>
+      <c r="V123" s="3">
+        <v>-0.41773405671119601</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C124" s="3">
+        <v>-0.334334015846252</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1.4687111377716</v>
+      </c>
+      <c r="E124" s="3">
+        <v>-2.2102456092834402</v>
+      </c>
+      <c r="F124" s="3">
+        <v>-1.64177966117858</v>
+      </c>
+      <c r="G124" s="3">
+        <v>-0.87418293952941895</v>
+      </c>
+      <c r="H124" s="3">
+        <v>-2.0995359420776301</v>
+      </c>
+      <c r="I124" s="3">
+        <v>-2.3089895248413002</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0.15818801522254899</v>
+      </c>
+      <c r="K124" s="3">
+        <v>1.9534929990768399</v>
+      </c>
+      <c r="L124" s="3">
+        <v>-2.6177690029144198</v>
+      </c>
+      <c r="M124" s="3">
+        <v>0.129128783941268</v>
+      </c>
+      <c r="N124" s="3">
+        <v>-5.1686558723449698</v>
+      </c>
+      <c r="O124" s="3">
+        <v>2.5083663463592498</v>
+      </c>
+      <c r="P124" s="3">
+        <v>1.9624710083007799</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>2.2429447174072199</v>
+      </c>
+      <c r="R124" s="3">
+        <v>-1.79562199115753</v>
+      </c>
+      <c r="S124" s="3">
+        <v>3.2804782390594398</v>
+      </c>
+      <c r="T124" s="3">
+        <v>-2.4138298034667902</v>
+      </c>
+      <c r="U124" s="3">
+        <v>1.8494004011154099</v>
+      </c>
+      <c r="V124" s="3">
+        <v>4.9992318153381303</v>
+      </c>
+    </row>
+    <row r="125" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C125" s="3">
+        <v>-0.52815151214599598</v>
+      </c>
+      <c r="D125" s="3">
+        <v>3.0338258743286102</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.236142337322235</v>
+      </c>
+      <c r="F125" s="3">
+        <v>-2.6839120388031001</v>
+      </c>
+      <c r="G125" s="3">
+        <v>-0.330466598272323</v>
+      </c>
+      <c r="H125" s="3">
+        <v>-1.7962518930435101</v>
+      </c>
+      <c r="I125" s="3">
+        <v>-3.88082551956176</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0.30226132273674</v>
+      </c>
+      <c r="K125" s="3">
+        <v>3.3746573925018302</v>
+      </c>
+      <c r="L125" s="3">
+        <v>-0.111246027052402</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0.88368505239486606</v>
+      </c>
+      <c r="N125" s="3">
+        <v>2.1282432079315101</v>
+      </c>
+      <c r="O125" s="3">
+        <v>0.2624152302742</v>
+      </c>
+      <c r="P125" s="3">
+        <v>-1.0886695384979199</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>0.203692987561225</v>
+      </c>
+      <c r="R125" s="3">
+        <v>7.69786071032285E-3</v>
+      </c>
+      <c r="S125" s="3">
+        <v>1.2668330669403001</v>
+      </c>
+      <c r="T125" s="3">
+        <v>2.0254349708557098</v>
+      </c>
+      <c r="U125" s="3">
+        <v>-1.0715138912200901</v>
+      </c>
+      <c r="V125" s="3">
+        <v>-1.8970545530319201</v>
+      </c>
+    </row>
+    <row r="126" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C126" s="3">
+        <v>2.19026780128479</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.97758293151855402</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1.7035323381423899</v>
+      </c>
+      <c r="F126" s="3">
+        <v>-0.38142457604408198</v>
+      </c>
+      <c r="G126" s="3">
+        <v>2.4953587055206299</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1.2250899076461701</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2.9851222038268999</v>
+      </c>
+      <c r="J126" s="3">
+        <v>4.1121034622192303</v>
+      </c>
+      <c r="K126" s="3">
+        <v>-0.21331740915775299</v>
+      </c>
+      <c r="L126" s="3">
+        <v>-3.0728363990783598</v>
+      </c>
+      <c r="M126" s="3">
+        <v>-0.74664652347564697</v>
+      </c>
+      <c r="N126" s="3">
+        <v>2.0287725925445499</v>
+      </c>
+      <c r="O126" s="3">
+        <v>2.0346548557281401</v>
+      </c>
+      <c r="P126" s="3">
+        <v>-0.56237852573394698</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>2.3542952537536599</v>
+      </c>
+      <c r="R126" s="3">
+        <v>-2.7386372089385902</v>
+      </c>
+      <c r="S126" s="3">
+        <v>3.0935199260711599</v>
+      </c>
+      <c r="T126" s="3">
+        <v>0.36245378851890497</v>
+      </c>
+      <c r="U126" s="3">
+        <v>-1.7501236200332599</v>
+      </c>
+      <c r="V126" s="3">
+        <v>3.7437937259674001</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C127" s="3">
+        <v>-0.35438999533653198</v>
+      </c>
+      <c r="D127" s="3">
+        <v>3.9777774810790998</v>
+      </c>
+      <c r="E127" s="3">
+        <v>-1.2294932603836</v>
+      </c>
+      <c r="F127" s="3">
+        <v>-0.80213385820388705</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0.71934783458709695</v>
+      </c>
+      <c r="H127" s="3">
+        <v>-2.5435090065002401</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2.25603103637695</v>
+      </c>
+      <c r="J127" s="3">
+        <v>-0.57391113042831399</v>
+      </c>
+      <c r="K127" s="3">
+        <v>-2.2056109905242902</v>
+      </c>
+      <c r="L127" s="3">
+        <v>2.9918050765991202</v>
+      </c>
+      <c r="M127" s="3">
+        <v>2.8128645420074401</v>
+      </c>
+      <c r="N127" s="3">
+        <v>2.9355013370513898</v>
+      </c>
+      <c r="O127" s="3">
+        <v>1.6090337038040099</v>
+      </c>
+      <c r="P127" s="3">
+        <v>1.7978262901306099</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>2.1925263404846098</v>
+      </c>
+      <c r="R127" s="3">
+        <v>-0.87832218408584595</v>
+      </c>
+      <c r="S127" s="3">
+        <v>-2.8330433368682799</v>
+      </c>
+      <c r="T127" s="3">
+        <v>0.24275323748588501</v>
+      </c>
+      <c r="U127" s="3">
+        <v>-3.49027371406555</v>
+      </c>
+      <c r="V127" s="3">
+        <v>-1.97556960582733</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C128" s="3">
+        <v>1.73021304607391</v>
+      </c>
+      <c r="D128" s="3">
+        <v>-1.0782338380813501</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1.7641795873641899</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0.76549303531646695</v>
+      </c>
+      <c r="G128" s="3">
+        <v>4.6575989574193899E-2</v>
+      </c>
+      <c r="H128" s="3">
+        <v>-3.0999331474304199</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0.54939001798629705</v>
+      </c>
+      <c r="J128" s="3">
+        <v>2.00010681152343</v>
+      </c>
+      <c r="K128" s="3">
+        <v>1.0157430171966499</v>
+      </c>
+      <c r="L128" s="3">
+        <v>-4.1517486572265598</v>
+      </c>
+      <c r="M128" s="3">
+        <v>1.39577400684356</v>
+      </c>
+      <c r="N128" s="3">
+        <v>-2.8904995918273899</v>
+      </c>
+      <c r="O128" s="3">
+        <v>-0.39607486128807001</v>
+      </c>
+      <c r="P128" s="3">
+        <v>-3.1107325553893999</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>-0.78999584913253695</v>
+      </c>
+      <c r="R128" s="3">
+        <v>2.32602763175964</v>
+      </c>
+      <c r="S128" s="3">
+        <v>-0.82703274488449097</v>
+      </c>
+      <c r="T128" s="3">
+        <v>-0.123688749969005</v>
+      </c>
+      <c r="U128" s="3">
+        <v>-1.27504181861877</v>
+      </c>
+      <c r="V128" s="3">
+        <v>-2.2526650428771902</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C129" s="3">
+        <v>-0.71062076091766302</v>
+      </c>
+      <c r="D129" s="3">
+        <v>-0.86340647935867298</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.60522353649139</v>
+      </c>
+      <c r="F129" s="3">
+        <v>-7.9294753074645996</v>
+      </c>
+      <c r="G129" s="3">
+        <v>-4.6811408996581996</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0.58703273534774703</v>
+      </c>
+      <c r="I129" s="3">
+        <v>-0.22692489624023399</v>
+      </c>
+      <c r="J129" s="3">
+        <v>9.7311493009328807E-3</v>
+      </c>
+      <c r="K129" s="3">
+        <v>-1.10066866874694</v>
+      </c>
+      <c r="L129" s="3">
+        <v>-0.24001899361610399</v>
+      </c>
+      <c r="M129" s="3">
+        <v>-1.8844182491302399</v>
+      </c>
+      <c r="N129" s="3">
+        <v>-3.4212119579315101</v>
+      </c>
+      <c r="O129" s="3">
+        <v>2.5639903545379599</v>
+      </c>
+      <c r="P129" s="3">
+        <v>-3.82113480567932</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>-0.64410829544067305</v>
+      </c>
+      <c r="R129" s="3">
+        <v>-4.0395159721374503</v>
+      </c>
+      <c r="S129" s="3">
+        <v>-2.7749881744384699</v>
+      </c>
+      <c r="T129" s="3">
+        <v>1.6013926267623899</v>
+      </c>
+      <c r="U129" s="3">
+        <v>1.8653304576873699</v>
+      </c>
+      <c r="V129" s="3">
+        <v>-3.7143516540527299</v>
+      </c>
+    </row>
+    <row r="130" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C130" s="3">
+        <v>1.2715164422988801</v>
+      </c>
+      <c r="D130" s="3">
+        <v>-3.50415015220642</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.90186995267867998</v>
+      </c>
+      <c r="F130" s="3">
+        <v>2.7695622444152801</v>
+      </c>
+      <c r="G130" s="3">
+        <v>2.7620494365692099</v>
+      </c>
+      <c r="H130" s="3">
+        <v>1.86673390865325</v>
+      </c>
+      <c r="I130" s="3">
+        <v>1.4821921586990301</v>
+      </c>
+      <c r="J130" s="3">
+        <v>-1.7473335266113199</v>
+      </c>
+      <c r="K130" s="3">
+        <v>-4.6597723960876403</v>
+      </c>
+      <c r="L130" s="3">
+        <v>1.67603611946105</v>
+      </c>
+      <c r="M130" s="3">
+        <v>1.66579449176788</v>
+      </c>
+      <c r="N130" s="3">
+        <v>0.91890674829482999</v>
+      </c>
+      <c r="O130" s="3">
+        <v>-2.38464999198913</v>
+      </c>
+      <c r="P130" s="3">
+        <v>-3.6966342926025302</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>-1.57674908638</v>
+      </c>
+      <c r="R130" s="3">
+        <v>3.6589381694793701</v>
+      </c>
+      <c r="S130" s="3">
+        <v>-1.8217294216155999</v>
+      </c>
+      <c r="T130" s="3">
+        <v>-0.76734066009521396</v>
+      </c>
+      <c r="U130" s="3">
+        <v>-2.5421605110168399</v>
+      </c>
+      <c r="V130" s="3">
+        <v>0.95236027240753096</v>
+      </c>
+    </row>
+    <row r="131" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C131" s="3">
+        <v>-1.5354207754135101</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1.70337438583374</v>
+      </c>
+      <c r="E131" s="3">
+        <v>2.0775051116943302</v>
+      </c>
+      <c r="F131" s="3">
+        <v>-2.0236690044403001</v>
+      </c>
+      <c r="G131" s="3">
+        <v>-0.35359591245651201</v>
+      </c>
+      <c r="H131" s="3">
+        <v>-5.4354796409606898</v>
+      </c>
+      <c r="I131" s="3">
+        <v>2.2852046489715501</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0.90147179365158003</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0.85950195789337103</v>
+      </c>
+      <c r="L131" s="3">
+        <v>2.2732238769531201</v>
+      </c>
+      <c r="M131" s="3">
+        <v>0.44567900896072299</v>
+      </c>
+      <c r="N131" s="3">
+        <v>5.19441318511962</v>
+      </c>
+      <c r="O131" s="3">
+        <v>1.0959273576736399</v>
+      </c>
+      <c r="P131" s="3">
+        <v>2.1174440383911102</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>1.4831614494323699</v>
+      </c>
+      <c r="R131" s="3">
+        <v>1.4950875043869001</v>
+      </c>
+      <c r="S131" s="3">
+        <v>0.150182574987411</v>
+      </c>
+      <c r="T131" s="3">
+        <v>6.2605271339416504</v>
+      </c>
+      <c r="U131" s="3">
+        <v>0.421682298183441</v>
+      </c>
+      <c r="V131" s="3">
+        <v>-0.27421912550926197</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C132" s="3">
+        <v>0.88901686668395996</v>
+      </c>
+      <c r="D132" s="3">
+        <v>4.9270100593566797</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1.00322914123535</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0.82505077123641901</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1.9485554695129299</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1.3910814523696899</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0.54405021667480402</v>
+      </c>
+      <c r="J132" s="3">
+        <v>-3.57493996620178</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0.45477369427680903</v>
+      </c>
+      <c r="L132" s="3">
+        <v>3.40221047401428</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0.263911932706832</v>
+      </c>
+      <c r="N132" s="3">
+        <v>-1.2490812540054299</v>
+      </c>
+      <c r="O132" s="3">
+        <v>3.0202455520629798</v>
+      </c>
+      <c r="P132" s="3">
+        <v>-2.9399635791778498</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>-3.1405262947082502</v>
+      </c>
+      <c r="R132" s="3">
+        <v>-0.70966053009033203</v>
+      </c>
+      <c r="S132" s="3">
+        <v>-0.57274311780929499</v>
+      </c>
+      <c r="T132" s="3">
+        <v>2.6131055355071999</v>
+      </c>
+      <c r="U132" s="3">
+        <v>-4.5476107597351003</v>
+      </c>
+      <c r="V132" s="3">
+        <v>2.8882749029435201E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="4">
+        <v>2.41696572303771</v>
+      </c>
+      <c r="D134" s="4">
+        <v>-2.6152169704437198</v>
+      </c>
+      <c r="E134" s="4">
+        <v>3.1706914305686902E-2</v>
+      </c>
+      <c r="F134" s="4">
+        <v>-1.3306083679199201</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0.721577107906341</v>
+      </c>
+      <c r="H134" s="4">
+        <v>-0.237695798277854</v>
+      </c>
+      <c r="I134" s="4">
+        <v>-1.4039001464843699</v>
+      </c>
+      <c r="J134" s="4">
+        <v>-0.52610778808593694</v>
+      </c>
+      <c r="K134" s="4">
+        <v>2.7747519016265798</v>
+      </c>
+      <c r="L134" s="4">
+        <v>-0.42499071359634399</v>
+      </c>
+      <c r="M134" s="4">
+        <v>-0.437882810831069</v>
+      </c>
+      <c r="N134" s="4">
+        <v>4.7785835266113201</v>
+      </c>
+      <c r="O134" s="4">
+        <v>-4.8640885353088299</v>
+      </c>
+      <c r="P134" s="4">
+        <v>-0.53070378303527799</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>-1.7489863634109399</v>
+      </c>
+      <c r="R134" s="4">
+        <v>1.5609701871871899</v>
+      </c>
+      <c r="S134" s="4">
+        <v>-7.2534888982772799E-2</v>
+      </c>
+      <c r="T134" s="4">
+        <v>2.2915515899658199</v>
+      </c>
+      <c r="U134" s="4">
+        <v>-1.6908544301986601</v>
+      </c>
+      <c r="V134" s="4">
+        <v>-0.81118947267532304</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C135" s="4">
+        <v>4.4652523994445801</v>
+      </c>
+      <c r="D135" s="4">
+        <v>-6.1445195227861397E-2</v>
+      </c>
+      <c r="E135" s="4">
+        <v>-4.4752559661865199</v>
+      </c>
+      <c r="F135" s="4">
+        <v>-3.6373364925384499</v>
+      </c>
+      <c r="G135" s="4">
+        <v>-1.65267705917358</v>
+      </c>
+      <c r="H135" s="4">
+        <v>-1.21280705928802</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0.50973147153854304</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0.51680505275726296</v>
+      </c>
+      <c r="K135" s="4">
+        <v>3.3563334941864</v>
+      </c>
+      <c r="L135" s="4">
+        <v>-3.8988785743713299</v>
+      </c>
+      <c r="M135" s="4">
+        <v>-0.44614836573600702</v>
+      </c>
+      <c r="N135" s="4">
+        <v>-2.8663654327392498</v>
+      </c>
+      <c r="O135" s="4">
+        <v>5.5167603492736799</v>
+      </c>
+      <c r="P135" s="4">
+        <v>0.33052930235862699</v>
+      </c>
+      <c r="Q135" s="4">
+        <v>4.7290167808532697</v>
+      </c>
+      <c r="R135" s="4">
+        <v>-2.4601917266845699</v>
+      </c>
+      <c r="S135" s="4">
+        <v>0.465176790952682</v>
+      </c>
+      <c r="T135" s="4">
+        <v>-0.52613067626953103</v>
+      </c>
+      <c r="U135" s="4">
+        <v>-0.11218525469303101</v>
+      </c>
+      <c r="V135" s="4">
+        <v>3.8372845649719198</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C136" s="4">
+        <v>-0.72661221027374201</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0.190892413258552</v>
+      </c>
+      <c r="E136" s="4">
+        <v>-1.6697734594345</v>
+      </c>
+      <c r="F136" s="4">
+        <v>-5.3888125419616699</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0.85791909694671598</v>
+      </c>
+      <c r="H136" s="4">
+        <v>-0.81902617216110196</v>
+      </c>
+      <c r="I136" s="4">
+        <v>-1.16937851905822</v>
+      </c>
+      <c r="J136" s="4">
+        <v>-0.22289876639842901</v>
+      </c>
+      <c r="K136" s="4">
+        <v>2.23048496246337</v>
+      </c>
+      <c r="L136" s="4">
+        <v>8.9569479227065998E-2</v>
+      </c>
+      <c r="M136" s="4">
+        <v>-0.23978064954280801</v>
+      </c>
+      <c r="N136" s="4">
+        <v>3.2349636554718</v>
+      </c>
+      <c r="O136" s="4">
+        <v>0.78486508131027199</v>
+      </c>
+      <c r="P136" s="4">
+        <v>1.24380326271057</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>-0.67385476827621404</v>
+      </c>
+      <c r="R136" s="4">
+        <v>-0.84017843008041304</v>
+      </c>
+      <c r="S136" s="4">
+        <v>2.1104240417480402</v>
+      </c>
+      <c r="T136" s="4">
+        <v>-0.50129824876785201</v>
+      </c>
+      <c r="U136" s="4">
+        <v>0.81116414070129395</v>
+      </c>
+      <c r="V136" s="4">
+        <v>0.48665907979011502</v>
+      </c>
+    </row>
+    <row r="137" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C137" s="4">
+        <v>2.1943159103393501</v>
+      </c>
+      <c r="D137" s="4">
+        <v>-1.8907526731491</v>
+      </c>
+      <c r="E137" s="4">
+        <v>4.11329841613769</v>
+      </c>
+      <c r="F137" s="4">
+        <v>-0.144869640469551</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1.6262012720107999</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0.94425439834594704</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0.358702361583709</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0.97465413808822599</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0.216287210583686</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0.73057210445403997</v>
+      </c>
+      <c r="M137" s="4">
+        <v>-1.5532237291336</v>
+      </c>
+      <c r="N137" s="4">
+        <v>-0.61950826644897405</v>
+      </c>
+      <c r="O137" s="4">
+        <v>-1.3405117988586399</v>
+      </c>
+      <c r="P137" s="4">
+        <v>-4.2507038116454998</v>
+      </c>
+      <c r="Q137" s="4">
+        <v>1.9083558320999101</v>
+      </c>
+      <c r="R137" s="4">
+        <v>-1.87461102008819</v>
+      </c>
+      <c r="S137" s="4">
+        <v>-1.2175261974334699</v>
+      </c>
+      <c r="T137" s="4">
+        <v>0.90742009878158503</v>
+      </c>
+      <c r="U137" s="4">
+        <v>-1.38636291027069</v>
+      </c>
+      <c r="V137" s="4">
+        <v>1.9937562942504801</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C138" s="4">
+        <v>3.6186132431030198</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1.9001715183257999</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.89015686511993397</v>
+      </c>
+      <c r="F138" s="4">
+        <v>-0.50385373830795199</v>
+      </c>
+      <c r="G138" s="4">
+        <v>-1.4646520614623999</v>
+      </c>
+      <c r="H138" s="4">
+        <v>-2.0521290302276598</v>
+      </c>
+      <c r="I138" s="4">
+        <v>3.2157750129699698</v>
+      </c>
+      <c r="J138" s="4">
+        <v>4.4189509004354401E-2</v>
+      </c>
+      <c r="K138" s="4">
+        <v>1.5662215948104801</v>
+      </c>
+      <c r="L138" s="4">
+        <v>1.7506635189056301</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0.30265012383460999</v>
+      </c>
+      <c r="N138" s="4">
+        <v>3.45964384078979</v>
+      </c>
+      <c r="O138" s="4">
+        <v>-1.8367118835449201</v>
+      </c>
+      <c r="P138" s="4">
+        <v>3.1489725112914999</v>
+      </c>
+      <c r="Q138" s="4">
+        <v>4.1701683998107901</v>
+      </c>
+      <c r="R138" s="4">
+        <v>1.41007924079895</v>
+      </c>
+      <c r="S138" s="4">
+        <v>-1.4116501808166499</v>
+      </c>
+      <c r="T138" s="4">
+        <v>-0.94034165143966597</v>
+      </c>
+      <c r="U138" s="4">
+        <v>-1.6519354581832799</v>
+      </c>
+      <c r="V138" s="4">
+        <v>0.33831882476806602</v>
+      </c>
+    </row>
+    <row r="139" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C139" s="4">
+        <v>3.4239661693572998</v>
+      </c>
+      <c r="D139" s="4">
+        <v>2.2235617637634202</v>
+      </c>
+      <c r="E139" s="4">
+        <v>2.92961430549621</v>
+      </c>
+      <c r="F139" s="4">
+        <v>-1.60048508644104</v>
+      </c>
+      <c r="G139" s="4">
+        <v>0.59481042623519897</v>
+      </c>
+      <c r="H139" s="4">
+        <v>-3.0125892162322998</v>
+      </c>
+      <c r="I139" s="4">
+        <v>-1.55756247043609</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0.99119192361831598</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1.3801363706588701</v>
+      </c>
+      <c r="L139" s="4">
+        <v>-2.2742602825164702</v>
+      </c>
+      <c r="M139" s="4">
+        <v>-2.6925966739654501</v>
+      </c>
+      <c r="N139" s="4">
+        <v>0.53879863023757901</v>
+      </c>
+      <c r="O139" s="4">
+        <v>4.1154065132141104</v>
+      </c>
+      <c r="P139" s="4">
+        <v>4.4081211090087802</v>
+      </c>
+      <c r="Q139" s="4">
+        <v>-0.14096392691135401</v>
+      </c>
+      <c r="R139" s="4">
+        <v>-1.14787292480468</v>
+      </c>
+      <c r="S139" s="4">
+        <v>-2.9816825389861998</v>
+      </c>
+      <c r="T139" s="4">
+        <v>-0.27105244994163502</v>
+      </c>
+      <c r="U139" s="4">
+        <v>-1.57153391838073</v>
+      </c>
+      <c r="V139" s="4">
+        <v>-0.85466825962066595</v>
+      </c>
+    </row>
+    <row r="140" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C140" s="4">
+        <v>1.3590450286865201</v>
+      </c>
+      <c r="D140" s="4">
+        <v>-2.5684423446655198</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0.77809959650039595</v>
+      </c>
+      <c r="F140" s="4">
+        <v>-3.04565978050231</v>
+      </c>
+      <c r="G140" s="4">
+        <v>4.0172960609197603E-2</v>
+      </c>
+      <c r="H140" s="4">
+        <v>-2.02716040611267</v>
+      </c>
+      <c r="I140" s="4">
+        <v>-1.67026567459106</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0.17116592824459001</v>
+      </c>
+      <c r="K140" s="4">
+        <v>-1.5408406257629299</v>
+      </c>
+      <c r="L140" s="4">
+        <v>0.155614659190177</v>
+      </c>
+      <c r="M140" s="4">
+        <v>-0.81289070844650202</v>
+      </c>
+      <c r="N140" s="4">
+        <v>0.63564682006835904</v>
+      </c>
+      <c r="O140" s="4">
+        <v>-1.7252441644668499</v>
+      </c>
+      <c r="P140" s="4">
+        <v>-2.1404273509979199</v>
+      </c>
+      <c r="Q140" s="4">
+        <v>-1.9769544601440401</v>
+      </c>
+      <c r="R140" s="4">
+        <v>-0.90053033828735296</v>
+      </c>
+      <c r="S140" s="4">
+        <v>1.1861716508865301</v>
+      </c>
+      <c r="T140" s="4">
+        <v>-3.5136923789978001</v>
+      </c>
+      <c r="U140" s="4">
+        <v>2.1162796020507799</v>
+      </c>
+      <c r="V140" s="4">
+        <v>-4.5843601226806596</v>
+      </c>
+    </row>
+    <row r="141" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C141" s="4">
+        <v>0.97536700963973999</v>
+      </c>
+      <c r="D141" s="4">
+        <v>-3.5789189338684002</v>
+      </c>
+      <c r="E141" s="4">
+        <v>-0.24794754385948101</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0.68712669610977095</v>
+      </c>
+      <c r="G141" s="4">
+        <v>-0.56241428852081299</v>
+      </c>
+      <c r="H141" s="4">
+        <v>1.11746478080749</v>
+      </c>
+      <c r="I141" s="4">
+        <v>-0.22328081727027799</v>
+      </c>
+      <c r="J141" s="4">
+        <v>-1.7868334054946899</v>
+      </c>
+      <c r="K141" s="4">
+        <v>-4.05157041549682</v>
+      </c>
+      <c r="L141" s="4">
+        <v>0.490263402462005</v>
+      </c>
+      <c r="M141" s="4">
+        <v>2.8830537796020499</v>
+      </c>
+      <c r="N141" s="4">
+        <v>0.28162059187889099</v>
+      </c>
+      <c r="O141" s="4">
+        <v>-3.9888546466827299</v>
+      </c>
+      <c r="P141" s="4">
+        <v>-2.7038345336914</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>1.07635998725891</v>
+      </c>
+      <c r="R141" s="4">
+        <v>1.8672239780426001</v>
+      </c>
+      <c r="S141" s="4">
+        <v>0.53103381395339899</v>
+      </c>
+      <c r="T141" s="4">
+        <v>-1.4881943464279099</v>
+      </c>
+      <c r="U141" s="4">
+        <v>-2.0575168132781898</v>
+      </c>
+      <c r="V141" s="4">
+        <v>-0.133185029029846</v>
+      </c>
+    </row>
+    <row r="142" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C142" s="4">
+        <v>-0.45450842380523598</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0.81962418556213301</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1.1096385717391899</v>
+      </c>
+      <c r="F142" s="4">
+        <v>-0.20442116260528501</v>
+      </c>
+      <c r="G142" s="4">
+        <v>2.7111186981201101</v>
+      </c>
+      <c r="H142" s="4">
+        <v>-3.3474636077880802</v>
+      </c>
+      <c r="I142" s="4">
+        <v>2.8163924217224099</v>
+      </c>
+      <c r="J142" s="4">
+        <v>-1.29873859882354</v>
+      </c>
+      <c r="K142" s="4">
+        <v>1.0683776140212999</v>
+      </c>
+      <c r="L142" s="4">
+        <v>-1.78141784667968</v>
+      </c>
+      <c r="M142" s="4">
+        <v>-2.0519454479217498</v>
+      </c>
+      <c r="N142" s="4">
+        <v>0.71813756227493197</v>
+      </c>
+      <c r="O142" s="4">
+        <v>-1.20206069946289</v>
+      </c>
+      <c r="P142" s="4">
+        <v>0.325221747159957</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>0.49107301235198902</v>
+      </c>
+      <c r="R142" s="4">
+        <v>-9.9633418023586204E-2</v>
+      </c>
+      <c r="S142" s="4">
+        <v>-2.2774891853332502</v>
+      </c>
+      <c r="T142" s="4">
+        <v>3.05194020271301</v>
+      </c>
+      <c r="U142" s="4">
+        <v>-1.5297207832336399</v>
+      </c>
+      <c r="V142" s="4">
+        <v>1.1704968214035001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C143" s="4">
+        <v>1.10274994373321</v>
+      </c>
+      <c r="D143" s="4">
+        <v>7.4965100288391104</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1.63058197498321</v>
+      </c>
+      <c r="F143" s="4">
+        <v>3.8351140022277801</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0.40737333893775901</v>
+      </c>
+      <c r="H143" s="4">
+        <v>2.1400938034057599</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1.4946491718292201</v>
+      </c>
+      <c r="J143" s="4">
+        <v>-1.82064449787139</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1.2312370538711499</v>
+      </c>
+      <c r="L143" s="4">
+        <v>2.3095064163207999</v>
+      </c>
+      <c r="M143" s="4">
+        <v>1.1941065788269001</v>
+      </c>
+      <c r="N143" s="4">
+        <v>-2.54299664497375</v>
+      </c>
+      <c r="O143" s="4">
+        <v>-1.5107718706130899</v>
+      </c>
+      <c r="P143" s="4">
+        <v>-1.14327120780944</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>-2.11010670661926</v>
+      </c>
+      <c r="R143" s="4">
+        <v>3.8530080318450901</v>
+      </c>
+      <c r="S143" s="4">
+        <v>-3.7343671321868799</v>
+      </c>
+      <c r="T143" s="4">
+        <v>2.5609054565429599</v>
+      </c>
+      <c r="U143" s="4">
+        <v>-2.9484825134277299</v>
+      </c>
+      <c r="V143" s="4">
+        <v>3.1592540740966699</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0.59076541662216098</v>
+      </c>
+      <c r="D145" s="4">
+        <v>-0.105905823409557</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.33117401599884</v>
+      </c>
+      <c r="F145" s="4">
+        <v>-0.27402174472808799</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0.33538451790809598</v>
+      </c>
+      <c r="H145" s="4">
+        <v>4.1510883718728998E-2</v>
+      </c>
+      <c r="I145" s="4">
+        <v>-0.27465060353279103</v>
+      </c>
+      <c r="J145" s="4">
+        <v>-7.6206088066101005E-2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.89729642868041903</v>
+      </c>
+      <c r="L145" s="4">
+        <v>0.68401765823364202</v>
+      </c>
+      <c r="M145" s="4">
+        <v>-4.3066486716270398E-2</v>
+      </c>
+      <c r="N145" s="4">
+        <v>0.29691419005393899</v>
+      </c>
+      <c r="O145" s="4">
+        <v>-0.31986048817634499</v>
+      </c>
+      <c r="P145" s="4">
+        <v>-0.75161725282669001</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>0.163451477885246</v>
+      </c>
+      <c r="R145" s="4">
+        <v>0.28840896487236001</v>
+      </c>
+      <c r="S145" s="4">
+        <v>0.46028780937194802</v>
+      </c>
+      <c r="T145" s="4">
+        <v>-0.151171579957008</v>
+      </c>
+      <c r="U145" s="4">
+        <v>-0.58060353994369496</v>
+      </c>
+      <c r="V145" s="4">
+        <v>-0.30262234807014399</v>
+      </c>
+    </row>
+    <row r="146" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C146" s="4">
+        <v>-0.33506020903587302</v>
+      </c>
+      <c r="D146" s="4">
+        <v>-0.39229699969291598</v>
+      </c>
+      <c r="E146" s="4">
+        <v>-0.67803359031677202</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0.14739091694355</v>
+      </c>
+      <c r="G146" s="4">
+        <v>-0.56921440362930298</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0.18163873255252799</v>
+      </c>
+      <c r="I146" s="4">
+        <v>0.30980697274208002</v>
+      </c>
+      <c r="J146" s="4">
+        <v>-0.370319634675979</v>
+      </c>
+      <c r="K146" s="4">
+        <v>-0.54934728145599299</v>
+      </c>
+      <c r="L146" s="4">
+        <v>-3.15951965749263E-2</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0.164093643426895</v>
+      </c>
+      <c r="N146" s="4">
+        <v>-0.19622488319873799</v>
+      </c>
+      <c r="O146" s="4">
+        <v>0.54444205760955799</v>
+      </c>
+      <c r="P146" s="4">
+        <v>0.47079646587371798</v>
+      </c>
+      <c r="Q146" s="4">
+        <v>0.30986127257347101</v>
+      </c>
+      <c r="R146" s="4">
+        <v>-0.143635883927345</v>
+      </c>
+      <c r="S146" s="4">
+        <v>0.362756967544555</v>
+      </c>
+      <c r="T146" s="4">
+        <v>-1.1624833345413199</v>
+      </c>
+      <c r="U146" s="4">
+        <v>-0.17993903160095201</v>
+      </c>
+      <c r="V146" s="4">
+        <v>0.90891140699386597</v>
+      </c>
+    </row>
+    <row r="147" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C147" s="4">
+        <v>0.103339061141014</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0.44501817226409901</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0.11476084589958099</v>
+      </c>
+      <c r="F147" s="4">
+        <v>-0.76047486066818204</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0.43883591890335</v>
+      </c>
+      <c r="H147" s="4">
+        <v>-0.113918207585811</v>
+      </c>
+      <c r="I147" s="4">
+        <v>-0.57793182134628296</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0.30126160383224398</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0.12673930823802901</v>
+      </c>
+      <c r="L147" s="4">
+        <v>6.2485415488481501E-2</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0.14581190049648199</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0.90691792964935303</v>
+      </c>
+      <c r="O147" s="4">
+        <v>0.205801650881767</v>
+      </c>
+      <c r="P147" s="4">
+        <v>-0.38157358765602101</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>0.56614804267883301</v>
+      </c>
+      <c r="R147" s="4">
+        <v>-0.42575699090957603</v>
+      </c>
+      <c r="S147" s="4">
+        <v>-0.944949090480804</v>
+      </c>
+      <c r="T147" s="4">
+        <v>5.2876520901918397E-2</v>
+      </c>
+      <c r="U147" s="4">
+        <v>0.140414863824844</v>
+      </c>
+      <c r="V147" s="4">
+        <v>-1.5512658357620199</v>
+      </c>
+    </row>
+    <row r="148" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C148" s="4">
+        <v>0.22555805742740601</v>
+      </c>
+      <c r="D148" s="4">
+        <v>-8.7480321526527405E-2</v>
+      </c>
+      <c r="E148" s="4">
+        <v>-0.54920500516891402</v>
+      </c>
+      <c r="F148" s="4">
+        <v>-0.45805308222770602</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0.36163952946662897</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0.70416688919067305</v>
+      </c>
+      <c r="I148" s="4">
+        <v>0.25498756766319203</v>
+      </c>
+      <c r="J148" s="4">
+        <v>0.42751294374465898</v>
+      </c>
+      <c r="K148" s="4">
+        <v>-1.05555844306945</v>
+      </c>
+      <c r="L148" s="4">
+        <v>0.78605985641479403</v>
+      </c>
+      <c r="M148" s="4">
+        <v>-7.6966688036918599E-2</v>
+      </c>
+      <c r="N148" s="4">
+        <v>8.3329372107982594E-2</v>
+      </c>
+      <c r="O148" s="4">
+        <v>1.0994186401367101</v>
+      </c>
+      <c r="P148" s="4">
+        <v>0.14415477216243699</v>
+      </c>
+      <c r="Q148" s="4">
+        <v>6.41505122184753E-2</v>
+      </c>
+      <c r="R148" s="4">
+        <v>-0.12352215498685799</v>
+      </c>
+      <c r="S148" s="4">
+        <v>0.87536269426345803</v>
+      </c>
+      <c r="T148" s="4">
+        <v>-7.8482791781425407E-2</v>
+      </c>
+      <c r="U148" s="4">
+        <v>-0.33052694797515803</v>
+      </c>
+      <c r="V148" s="4">
+        <v>0.34566247463226302</v>
+      </c>
+    </row>
+    <row r="149" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C149" s="4">
+        <v>0.211885526776313</v>
+      </c>
+      <c r="D149" s="4">
+        <v>-4.4783223420381497E-2</v>
+      </c>
+      <c r="E149" s="4">
+        <v>-0.51524132490158003</v>
+      </c>
+      <c r="F149" s="4">
+        <v>0.42159721255302401</v>
+      </c>
+      <c r="G149" s="4">
+        <v>-0.54512143135070801</v>
+      </c>
+      <c r="H149" s="4">
+        <v>5.5126391351222902E-2</v>
+      </c>
+      <c r="I149" s="4">
+        <v>0.92565947771072299</v>
+      </c>
+      <c r="J149" s="4">
+        <v>0.26209691166877702</v>
+      </c>
+      <c r="K149" s="4">
+        <v>-0.12750354409217801</v>
+      </c>
+      <c r="L149" s="4">
+        <v>0.35974967479705799</v>
+      </c>
+      <c r="M149" s="4">
+        <v>0.43527236580848599</v>
+      </c>
+      <c r="N149" s="4">
+        <v>1.0838092565536499</v>
+      </c>
+      <c r="O149" s="4">
+        <v>1.2024168968200599</v>
+      </c>
+      <c r="P149" s="4">
+        <v>0.65130704641342096</v>
+      </c>
+      <c r="Q149" s="4">
+        <v>0.127508074045181</v>
+      </c>
+      <c r="R149" s="4">
+        <v>-0.45331212878227201</v>
+      </c>
+      <c r="S149" s="4">
+        <v>0.17564573884010301</v>
+      </c>
+      <c r="T149" s="4">
+        <v>0.26675093173980702</v>
+      </c>
+      <c r="U149" s="4">
+        <v>-0.189878925681114</v>
+      </c>
+      <c r="V149" s="4">
+        <v>-0.35370889306068398</v>
+      </c>
+    </row>
+    <row r="150" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C150" s="4">
+        <v>-0.27066028118133501</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0.457780390977859</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0.39639362692832902</v>
+      </c>
+      <c r="F150" s="4">
+        <v>0.20836129784584001</v>
+      </c>
+      <c r="G150" s="4">
+        <v>-0.97056829929351796</v>
+      </c>
+      <c r="H150" s="4">
+        <v>-1.2675467729568399</v>
+      </c>
+      <c r="I150" s="4">
+        <v>0.29873082041740401</v>
+      </c>
+      <c r="J150" s="4">
+        <v>0.38276761770248402</v>
+      </c>
+      <c r="K150" s="4">
+        <v>0.48867204785346902</v>
+      </c>
+      <c r="L150" s="4">
+        <v>-0.34682658314704801</v>
+      </c>
+      <c r="M150" s="4">
+        <v>-0.34324046969413702</v>
+      </c>
+      <c r="N150" s="4">
+        <v>-0.24867579340934701</v>
+      </c>
+      <c r="O150" s="4">
+        <v>-0.410733312368392</v>
+      </c>
+      <c r="P150" s="4">
+        <v>-0.57866781949996904</v>
+      </c>
+      <c r="Q150" s="4">
+        <v>-0.68022996187210005</v>
+      </c>
+      <c r="R150" s="4">
+        <v>-0.142076581716537</v>
+      </c>
+      <c r="S150" s="4">
+        <v>-0.31241485476493802</v>
+      </c>
+      <c r="T150" s="4">
+        <v>0.46461093425750699</v>
+      </c>
+      <c r="U150" s="4">
+        <v>0.79467886686324996</v>
+      </c>
+      <c r="V150" s="4">
+        <v>-0.97580355405807495</v>
+      </c>
+    </row>
+    <row r="151" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C151" s="4">
+        <v>-1.0421013832092201</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0.29096639156341497</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0.32118991017341603</v>
+      </c>
+      <c r="F151" s="4">
+        <v>-1.3170311450958201</v>
+      </c>
+      <c r="G151" s="4">
+        <v>-0.40413776040077198</v>
+      </c>
+      <c r="H151" s="4">
+        <v>-0.19349901378154699</v>
+      </c>
+      <c r="I151" s="4">
+        <v>-3.54393012821674E-2</v>
+      </c>
+      <c r="J151" s="4">
+        <v>-0.79820233583450295</v>
+      </c>
+      <c r="K151" s="4">
+        <v>0.29100802540779103</v>
+      </c>
+      <c r="L151" s="4">
+        <v>-0.21823309361934601</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0.71120488643646196</v>
+      </c>
+      <c r="N151" s="4">
+        <v>-0.50103652477264404</v>
+      </c>
+      <c r="O151" s="4">
+        <v>0.49118241667747498</v>
+      </c>
+      <c r="P151" s="4">
+        <v>-0.91651421785354603</v>
+      </c>
+      <c r="Q151" s="4">
+        <v>0.19124291837215401</v>
+      </c>
+      <c r="R151" s="4">
+        <v>-1.0912781953811601</v>
+      </c>
+      <c r="S151" s="4">
+        <v>-0.75420075654983498</v>
+      </c>
+      <c r="T151" s="4">
+        <v>-0.49147513508796598</v>
+      </c>
+      <c r="U151" s="4">
+        <v>0.213809579610824</v>
+      </c>
+      <c r="V151" s="4">
+        <v>-1.08498346805572</v>
+      </c>
+    </row>
+    <row r="152" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C152" s="4">
+        <v>-0.49364706873893699</v>
+      </c>
+      <c r="D152" s="4">
+        <v>-9.6358165144920294E-2</v>
+      </c>
+      <c r="E152" s="4">
+        <v>-0.447891145944595</v>
+      </c>
+      <c r="F152" s="4">
+        <v>-0.36500161886215199</v>
+      </c>
+      <c r="G152" s="4">
+        <v>0.24657042324542999</v>
+      </c>
+      <c r="H152" s="4">
+        <v>-0.60146337747573797</v>
+      </c>
+      <c r="I152" s="4">
+        <v>-0.25367256999015803</v>
+      </c>
+      <c r="J152" s="4">
+        <v>-0.262696623802185</v>
+      </c>
+      <c r="K152" s="4">
+        <v>-0.16608868539333299</v>
+      </c>
+      <c r="L152" s="4">
+        <v>0.32685667276382402</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0.80207377672195401</v>
+      </c>
+      <c r="N152" s="4">
+        <v>-0.67989879846572798</v>
+      </c>
+      <c r="O152" s="4">
+        <v>-0.80816161632537797</v>
+      </c>
+      <c r="P152" s="4">
+        <v>6.26814514398574E-2</v>
+      </c>
+      <c r="Q152" s="4">
+        <v>0.32306724786758401</v>
+      </c>
+      <c r="R152" s="4">
+        <v>0.874772489070892</v>
+      </c>
+      <c r="S152" s="4">
+        <v>-2.93325446546077E-2</v>
+      </c>
+      <c r="T152" s="4">
+        <v>0.79839479923248202</v>
+      </c>
+      <c r="U152" s="4">
+        <v>-0.79575675725936801</v>
+      </c>
+      <c r="V152" s="4">
+        <v>0.57439851760864202</v>
+      </c>
+    </row>
+    <row r="153" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C153" s="4">
+        <v>-0.31735679507255499</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0.832203269004821</v>
+      </c>
+      <c r="E153" s="4">
+        <v>-2.9924361035227699E-2</v>
+      </c>
+      <c r="F153" s="4">
+        <v>-0.18680608272552399</v>
+      </c>
+      <c r="G153" s="4">
+        <v>9.6657767891883795E-2</v>
+      </c>
+      <c r="H153" s="4">
+        <v>-0.327462047338485</v>
+      </c>
+      <c r="I153" s="4">
+        <v>-0.143143340945243</v>
+      </c>
+      <c r="J153" s="4">
+        <v>-2.90978932753205E-3</v>
+      </c>
+      <c r="K153" s="4">
+        <v>0.97090715169906605</v>
+      </c>
+      <c r="L153" s="4">
+        <v>0.64304381608963002</v>
+      </c>
+      <c r="M153" s="4">
+        <v>-0.14157553017139399</v>
+      </c>
+      <c r="N153" s="4">
+        <v>0.97524523735046298</v>
+      </c>
+      <c r="O153" s="4">
+        <v>-0.18969134986400599</v>
+      </c>
+      <c r="P153" s="4">
+        <v>-0.32421568036079401</v>
+      </c>
+      <c r="Q153" s="4">
+        <v>0.30093643069267201</v>
+      </c>
+      <c r="R153" s="4">
+        <v>-0.42545554041862399</v>
+      </c>
+      <c r="S153" s="4">
+        <v>-0.49516868591308499</v>
+      </c>
+      <c r="T153" s="4">
+        <v>0.87519913911819402</v>
+      </c>
+      <c r="U153" s="4">
+        <v>-0.69408750534057595</v>
+      </c>
+      <c r="V153" s="4">
+        <v>0.50189042091369596</v>
+      </c>
+    </row>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C154" s="4">
+        <v>0.82566756010055498</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0.14904825389385201</v>
+      </c>
+      <c r="E154" s="4">
+        <v>-0.68548411130905096</v>
+      </c>
+      <c r="F154" s="4">
+        <v>0.63978397846221902</v>
+      </c>
+      <c r="G154" s="4">
+        <v>-0.251910060644149</v>
+      </c>
+      <c r="H154" s="4">
+        <v>0.32083359360694802</v>
+      </c>
+      <c r="I154" s="4">
+        <v>-5.7148840278387E-2</v>
+      </c>
+      <c r="J154" s="4">
+        <v>0.25935283303260798</v>
+      </c>
+      <c r="K154" s="4">
+        <v>-0.19601900875568301</v>
+      </c>
+      <c r="L154" s="4">
+        <v>-0.148448705673217</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0.32333257794380099</v>
+      </c>
+      <c r="N154" s="4">
+        <v>0.384284228086471</v>
+      </c>
+      <c r="O154" s="4">
+        <v>0.97039031982421797</v>
+      </c>
+      <c r="P154" s="4">
+        <v>-0.40336629748344399</v>
+      </c>
+      <c r="Q154" s="4">
+        <v>-0.56590098142623901</v>
+      </c>
+      <c r="R154" s="4">
+        <v>0.71487253904342596</v>
+      </c>
+      <c r="S154" s="4">
+        <v>-0.86819660663604703</v>
+      </c>
+      <c r="T154" s="4">
+        <v>0.279651880264282</v>
+      </c>
+      <c r="U154" s="4">
+        <v>-0.90601879358291604</v>
+      </c>
+      <c r="V154" s="4">
+        <v>-0.112478718161582</v>
+      </c>
+    </row>
+    <row r="156" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0.99229687452316195</v>
+      </c>
+      <c r="D156" s="4">
+        <v>-0.45433121919631902</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0.92202556133270197</v>
+      </c>
+      <c r="F156" s="4">
+        <v>-0.531322181224823</v>
+      </c>
+      <c r="G156" s="4">
+        <v>-0.13863676786422699</v>
+      </c>
+      <c r="H156" s="4">
+        <v>-0.19624774158000899</v>
+      </c>
+      <c r="I156" s="4">
+        <v>-0.93399012088775601</v>
+      </c>
+      <c r="J156" s="4">
+        <v>2.841741964221E-2</v>
+      </c>
+      <c r="K156" s="4">
+        <v>0.85878044366836503</v>
+      </c>
+      <c r="L156" s="4">
+        <v>0.52058869600295998</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0.48331421613693198</v>
+      </c>
+      <c r="N156" s="4">
+        <v>0.16773539781570401</v>
+      </c>
+      <c r="O156" s="4">
+        <v>0.562844097614288</v>
+      </c>
+      <c r="P156" s="4">
+        <v>0.48350167274475098</v>
+      </c>
+      <c r="Q156" s="4">
+        <v>0.36270606517791698</v>
+      </c>
+      <c r="R156" s="4">
+        <v>5.6521080434322302E-2</v>
+      </c>
+      <c r="S156" s="4">
+        <v>0.30457565188407898</v>
+      </c>
+      <c r="T156" s="4">
+        <v>-0.938262999057769</v>
+      </c>
+      <c r="U156" s="4">
+        <v>-0.97510206699371305</v>
+      </c>
+      <c r="V156" s="4">
+        <v>-2.9540158808231302E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C157" s="4">
+        <v>0.69184279441833496</v>
+      </c>
+      <c r="D157" s="4">
+        <v>-0.45857051014900202</v>
+      </c>
+      <c r="E157" s="4">
+        <v>-0.55734419822692804</v>
+      </c>
+      <c r="F157" s="4">
+        <v>0.33286136388778598</v>
+      </c>
+      <c r="G157" s="4">
+        <v>-0.62310993671417203</v>
+      </c>
+      <c r="H157" s="4">
+        <v>6.1030551791191101E-2</v>
+      </c>
+      <c r="I157" s="4">
+        <v>0.114652708172798</v>
+      </c>
+      <c r="J157" s="4">
+        <v>-1.1769481897354099</v>
+      </c>
+      <c r="K157" s="4">
+        <v>5.5589515715837402E-2</v>
+      </c>
+      <c r="L157" s="4">
+        <v>-0.98689550161361606</v>
+      </c>
+      <c r="M157" s="4">
+        <v>-5.4723699577152703E-3</v>
+      </c>
+      <c r="N157" s="4">
+        <v>-0.38151541352272</v>
+      </c>
+      <c r="O157" s="4">
+        <v>0.60477942228317205</v>
+      </c>
+      <c r="P157" s="4">
+        <v>0.33006468415260298</v>
+      </c>
+      <c r="Q157" s="4">
+        <v>0.56996589899063099</v>
+      </c>
+      <c r="R157" s="4">
+        <v>-0.44548505544662398</v>
+      </c>
+      <c r="S157" s="4">
+        <v>-0.17705307900905601</v>
+      </c>
+      <c r="T157" s="4">
+        <v>-0.69558280706405595</v>
+      </c>
+      <c r="U157" s="4">
+        <v>-0.25760149955749501</v>
+      </c>
+      <c r="V157" s="4">
+        <v>0.52771490812301602</v>
+      </c>
+    </row>
+    <row r="158" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C158" s="4">
+        <v>-0.122561812400817</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0.15585166215896601</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0.41924792528152399</v>
+      </c>
+      <c r="F158" s="4">
+        <v>-0.972023665904998</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0.306357562541961</v>
+      </c>
+      <c r="H158" s="4">
+        <v>0.36339843273162797</v>
+      </c>
+      <c r="I158" s="4">
+        <v>-0.74482679367065396</v>
+      </c>
+      <c r="J158" s="4">
+        <v>0.159166395664215</v>
+      </c>
+      <c r="K158" s="4">
+        <v>5.2568390965461703E-2</v>
+      </c>
+      <c r="L158" s="4">
+        <v>0.56548833847045898</v>
+      </c>
+      <c r="M158" s="4">
+        <v>-0.20733034610748199</v>
+      </c>
+      <c r="N158" s="4">
+        <v>1.70585465431213</v>
+      </c>
+      <c r="O158" s="4">
+        <v>-0.14480404555797499</v>
+      </c>
+      <c r="P158" s="4">
+        <v>-0.286476880311965</v>
+      </c>
+      <c r="Q158" s="4">
+        <v>0.73703527450561501</v>
+      </c>
+      <c r="R158" s="4">
+        <v>0.33680778741836498</v>
+      </c>
+      <c r="S158" s="4">
+        <v>-0.55760836601257302</v>
+      </c>
+      <c r="T158" s="4">
+        <v>-0.78094947338104204</v>
+      </c>
+      <c r="U158" s="4">
+        <v>0.43460464477539001</v>
+      </c>
+      <c r="V158" s="4">
+        <v>-1.0845539569854701</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C159" s="4">
+        <v>-9.5001265406608498E-2</v>
+      </c>
+      <c r="D159" s="4">
+        <v>-0.91657155752181996</v>
+      </c>
+      <c r="E159" s="4">
+        <v>-0.459765464067459</v>
+      </c>
+      <c r="F159" s="4">
+        <v>-0.19450822472572299</v>
+      </c>
+      <c r="G159" s="4">
+        <v>-0.54654544591903598</v>
+      </c>
+      <c r="H159" s="4">
+        <v>0.43991699814796398</v>
+      </c>
+      <c r="I159" s="4">
+        <v>0.53806489706039395</v>
+      </c>
+      <c r="J159" s="4">
+        <v>0.26901194453239402</v>
+      </c>
+      <c r="K159" s="4">
+        <v>-0.54251414537429798</v>
+      </c>
+      <c r="L159" s="4">
+        <v>0.85327076911926203</v>
+      </c>
+      <c r="M159" s="4">
+        <v>-7.9677142202854101E-2</v>
+      </c>
+      <c r="N159" s="4">
+        <v>-0.151245176792144</v>
+      </c>
+      <c r="O159" s="4">
+        <v>1.0124530792236299</v>
+      </c>
+      <c r="P159" s="4">
+        <v>-0.59360754489898604</v>
+      </c>
+      <c r="Q159" s="4">
+        <v>0.98153197765350297</v>
+      </c>
+      <c r="R159" s="4">
+        <v>0.21890857815742401</v>
+      </c>
+      <c r="S159" s="4">
+        <v>0.67181867361068703</v>
+      </c>
+      <c r="T159" s="4">
+        <v>-0.50350093841552701</v>
+      </c>
+      <c r="U159" s="4">
+        <v>-0.44380491971969599</v>
+      </c>
+      <c r="V159" s="4">
+        <v>1.05971574783325</v>
+      </c>
+    </row>
+    <row r="160" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="C160" s="4">
+        <v>0.396309494972229</v>
+      </c>
+      <c r="D160" s="4">
+        <v>-8.3738461136817904E-2</v>
+      </c>
+      <c r="E160" s="4">
+        <v>-0.136873379349708</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1.02195036411285</v>
+      </c>
+      <c r="G160" s="4">
+        <v>-0.84042555093765203</v>
+      </c>
+      <c r="H160" s="4">
+        <v>-0.73000687360763505</v>
+      </c>
+      <c r="I160" s="4">
+        <v>1.52326118946075</v>
+      </c>
+      <c r="J160" s="4">
+        <v>-1.2830015271901999E-2</v>
+      </c>
+      <c r="K160" s="4">
+        <v>0.189101487398147</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0.19005917012691401</v>
+      </c>
+      <c r="M160" s="4">
+        <v>0.66017776727676303</v>
+      </c>
+      <c r="N160" s="4">
+        <v>0.73387205600738503</v>
+      </c>
+      <c r="O160" s="4">
+        <v>0.57137709856033303</v>
+      </c>
+      <c r="P160" s="4">
+        <v>1.0499083995819001</v>
+      </c>
+      <c r="Q160" s="4">
+        <v>-0.31915500760078402</v>
+      </c>
+      <c r="R160" s="4">
+        <v>0.441359102725982</v>
+      </c>
+      <c r="S160" s="4">
+        <v>-0.25911161303520203</v>
+      </c>
+      <c r="T160" s="4">
+        <v>0.79094719886779696</v>
+      </c>
+      <c r="U160" s="4">
+        <v>2.7139129117131199E-2</v>
+      </c>
+      <c r="V160" s="4">
+        <v>-1.2062958478927599</v>
+      </c>
+    </row>
+    <row r="161" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C161" s="4">
+        <v>-0.457605600357055</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0.70462775230407704</v>
+      </c>
+      <c r="E161" s="4">
+        <v>9.1268815100192996E-2</v>
+      </c>
+      <c r="F161" s="4">
+        <v>-0.30403676629066401</v>
+      </c>
+      <c r="G161" s="4">
+        <v>-0.120679594576358</v>
+      </c>
+      <c r="H161" s="4">
+        <v>-1.0767836570739699</v>
+      </c>
+      <c r="I161" s="4">
+        <v>0.28150680661201399</v>
+      </c>
+      <c r="J161" s="4">
+        <v>0.70870059728622403</v>
+      </c>
+      <c r="K161" s="4">
+        <v>0.41218277812004001</v>
+      </c>
+      <c r="L161" s="4">
+        <v>-0.291539996862411</v>
+      </c>
+      <c r="M161" s="4">
+        <v>-0.35748931765556302</v>
+      </c>
+      <c r="N161" s="4">
+        <v>-1.1719444990157999</v>
+      </c>
+      <c r="O161" s="4">
+        <v>0.42866867780685403</v>
+      </c>
+      <c r="P161" s="4">
+        <v>-0.63931083679199197</v>
+      </c>
+      <c r="Q161" s="4">
+        <v>-0.93321782350540095</v>
+      </c>
+      <c r="R161" s="4">
+        <v>-0.55725115537643399</v>
+      </c>
+      <c r="S161" s="4">
+        <v>-0.50784647464752197</v>
+      </c>
+      <c r="T161" s="4">
+        <v>0.44724839925765902</v>
+      </c>
+      <c r="U161" s="4">
+        <v>0.49641728401183999</v>
+      </c>
+      <c r="V161" s="4">
+        <v>-0.54208397865295399</v>
+      </c>
+    </row>
+    <row r="162" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C162" s="4">
+        <v>-0.64999228715896595</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0.410745799541473</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0.13824902474880199</v>
+      </c>
+      <c r="F162" s="4">
+        <v>-1.9103261232376001</v>
+      </c>
+      <c r="G162" s="4">
+        <v>-1.0863280296325599</v>
+      </c>
+      <c r="H162" s="4">
+        <v>-0.13071969151496801</v>
+      </c>
+      <c r="I162" s="4">
+        <v>-0.44697916507720897</v>
+      </c>
+      <c r="J162" s="4">
+        <v>-0.81142109632491999</v>
+      </c>
+      <c r="K162" s="4">
+        <v>0.215248852968215</v>
+      </c>
+      <c r="L162" s="4">
+        <v>-1.99348647147417E-2</v>
+      </c>
+      <c r="M162" s="4">
+        <v>0.55102497339248602</v>
+      </c>
+      <c r="N162" s="4">
+        <v>-1.40473498031497E-2</v>
+      </c>
+      <c r="O162" s="4">
+        <v>0.39804843068122803</v>
+      </c>
+      <c r="P162" s="4">
+        <v>-0.47712785005569402</v>
+      </c>
+      <c r="Q162" s="4">
+        <v>-0.226545795798301</v>
+      </c>
+      <c r="R162" s="4">
+        <v>-0.77357387542724598</v>
+      </c>
+      <c r="S162" s="4">
+        <v>-0.27867367863655002</v>
+      </c>
+      <c r="T162" s="4">
+        <v>-0.81942820549011197</v>
+      </c>
+      <c r="U162" s="4">
+        <v>8.7950907647609697E-2</v>
+      </c>
+      <c r="V162" s="4">
+        <v>-1.93688404560089</v>
+      </c>
+    </row>
+    <row r="163" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C163" s="4">
+        <v>-8.4779672324657399E-2</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0.54998457431793202</v>
+      </c>
+      <c r="E163" s="4">
+        <v>-0.52102166414260798</v>
+      </c>
+      <c r="F163" s="4">
+        <v>-0.39307135343551602</v>
+      </c>
+      <c r="G163" s="4">
+        <v>-8.1106923520565005E-2</v>
+      </c>
+      <c r="H163" s="4">
+        <v>-0.65125143527984597</v>
+      </c>
+      <c r="I163" s="4">
+        <v>-0.45514932274818398</v>
+      </c>
+      <c r="J163" s="4">
+        <v>-1.0656768083572301</v>
+      </c>
+      <c r="K163" s="4">
+        <v>-0.76628023386001498</v>
+      </c>
+      <c r="L163" s="4">
+        <v>0.106494128704071</v>
+      </c>
+      <c r="M163" s="4">
+        <v>0.85689896345138505</v>
+      </c>
+      <c r="N163" s="4">
+        <v>-1.1766889095306301</v>
+      </c>
+      <c r="O163" s="4">
+        <v>-1.4429827928543</v>
+      </c>
+      <c r="P163" s="4">
+        <v>-0.66287863254547097</v>
+      </c>
+      <c r="Q163" s="4">
+        <v>-1.25658111646771E-2</v>
+      </c>
+      <c r="R163" s="4">
+        <v>1.32566249370574</v>
+      </c>
+      <c r="S163" s="4">
+        <v>0.34346672892570401</v>
+      </c>
+      <c r="T163" s="4">
+        <v>1.31212902069091</v>
+      </c>
+      <c r="U163" s="4">
+        <v>-0.79618114233016901</v>
+      </c>
+      <c r="V163" s="4">
+        <v>0.48244881629943798</v>
+      </c>
+    </row>
+    <row r="164" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C164" s="4">
+        <v>-0.26947456598281799</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0.205750912427902</v>
+      </c>
+      <c r="E164" s="4">
+        <v>-0.47349929809570301</v>
+      </c>
+      <c r="F164" s="4">
+        <v>0.32862186431884699</v>
+      </c>
+      <c r="G164" s="4">
+        <v>-7.5402356684207902E-2</v>
+      </c>
+      <c r="H164" s="4">
+        <v>-0.19138446450233401</v>
+      </c>
+      <c r="I164" s="4">
+        <v>-0.18611541390419001</v>
+      </c>
+      <c r="J164" s="4">
+        <v>-0.74039578437805098</v>
+      </c>
+      <c r="K164" s="4">
+        <v>0.33630728721618602</v>
+      </c>
+      <c r="L164" s="4">
+        <v>0.50818932056427002</v>
+      </c>
+      <c r="M164" s="4">
+        <v>-0.55335420370101895</v>
+      </c>
+      <c r="N164" s="4">
+        <v>1.15812075138092</v>
+      </c>
+      <c r="O164" s="4">
+        <v>9.4055555760860401E-2</v>
+      </c>
+      <c r="P164" s="4">
+        <v>-0.46090096235275202</v>
+      </c>
+      <c r="Q164" s="4">
+        <v>0.20934727787971399</v>
+      </c>
+      <c r="R164" s="4">
+        <v>-0.68562281131744296</v>
+      </c>
+      <c r="S164" s="4">
+        <v>-0.48961633443832397</v>
+      </c>
+      <c r="T164" s="4">
+        <v>1.24437808990478</v>
+      </c>
+      <c r="U164" s="4">
+        <v>-0.39304912090301503</v>
+      </c>
+      <c r="V164" s="4">
+        <v>0.60625332593917802</v>
+      </c>
+    </row>
+    <row r="165" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C165" s="4">
+        <v>1.11525225639343</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1.36637079715728</v>
+      </c>
+      <c r="E165" s="4">
+        <v>-0.152527600526809</v>
+      </c>
+      <c r="F165" s="4">
+        <v>0.91285991668701105</v>
+      </c>
+      <c r="G165" s="4">
+        <v>-2.2417375817894901E-2</v>
+      </c>
+      <c r="H165" s="4">
+        <v>0.10262978821992801</v>
+      </c>
+      <c r="I165" s="4">
+        <v>-0.16274492442607799</v>
+      </c>
+      <c r="J165" s="4">
+        <v>0.141287952661514</v>
+      </c>
+      <c r="K165" s="4">
+        <v>0.37412741780281</v>
+      </c>
+      <c r="L165" s="4">
+        <v>0.45360264182090698</v>
+      </c>
+      <c r="M165" s="4">
+        <v>0.93939185142517001</v>
+      </c>
+      <c r="N165" s="4">
+        <v>-1.0015505552291799</v>
+      </c>
+      <c r="O165" s="4">
+        <v>0.60561972856521595</v>
+      </c>
+      <c r="P165" s="4">
+        <v>-0.45392474532127303</v>
+      </c>
+      <c r="Q165" s="4">
+        <v>-1.07534623146057</v>
+      </c>
+      <c r="R165" s="4">
+        <v>0.45028844475746099</v>
+      </c>
+      <c r="S165" s="4">
+        <v>-1.40948379039764</v>
+      </c>
+      <c r="T165" s="4">
+        <v>-0.41911128163337702</v>
+      </c>
+      <c r="U165" s="4">
+        <v>-1.2479612827301001</v>
+      </c>
+      <c r="V165" s="4">
+        <v>0.20833887159824299</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:V1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9716,7 +14640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:V22">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9728,7 +14652,75 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:V44">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:V110">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="3"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:V121">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="3"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123:V132">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:V165">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9741,4 +14733,128 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8492AD37-A5E6-403E-A76A-E12F9D2DA128}">
+  <dimension ref="C3:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1366300</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>300000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1298900</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>400000</v>
+      </c>
+      <c r="D5">
+        <v>1265200</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>410000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1261800</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C7" s="5">
+        <v>420000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1258500</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>430000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1255100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>440000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1251700</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C10" s="5">
+        <v>450000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1248400</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>460000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1245000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>470000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1241600</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C13" s="5">
+        <v>480000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1238300</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>490000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1234900</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>500000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1231500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>